--- a/sorting.xlsx
+++ b/sorting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiebe\Documents\algoritmiek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58353532-D082-47A0-96FC-78B94800F317}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300DA75E-F172-4967-AD94-72D7D96D36C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{7E9C9B30-8F8E-40D1-926A-1D91A764C191}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>n</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>n*log(n)</t>
+  </si>
+  <si>
+    <t>conclusie n*log(n) dichtste bij 1, dus die benaderd het beste</t>
   </si>
 </sst>
 </file>
@@ -3515,15 +3518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E40B8E3-830B-4CB5-BD48-50A9932213F1}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>280</v>
       </c>
@@ -3559,8 +3562,11 @@
         <f>A2*LOG10(A2)</f>
         <v>685.2042487758215</v>
       </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>316</v>
       </c>
@@ -3580,7 +3586,7 @@
         <v>789.90111810741564</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>494</v>
       </c>
@@ -3600,7 +3606,7 @@
         <v>1330.7011127682817</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1347</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>4215.2581514388612</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1463</v>
       </c>
@@ -3640,7 +3646,7 @@
         <v>4630.7524491213298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2872</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>9931.9056989577948</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3302</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>11619.00188159621</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3717</v>
       </c>
@@ -3700,7 +3706,7 @@
         <v>13270.405749592814</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4711</v>
       </c>
@@ -3720,7 +3726,7 @@
         <v>17304.035834066319</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5408</v>
       </c>
@@ -3740,7 +3746,7 @@
         <v>20188.262381304798</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6410</v>
       </c>
@@ -3760,7 +3766,7 @@
         <v>24401.959969215619</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6417</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>24431.649696131568</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6656</v>
       </c>
@@ -3800,7 +3806,7 @@
         <v>25447.307813209434</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>7251</v>
       </c>
@@ -3820,7 +3826,7 @@
         <v>27991.745210078145</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7294</v>
       </c>
